--- a/spliced/falling/2023-03-25_17-55-55/data_selected.xlsx
+++ b/spliced/falling/2023-03-25_17-55-55/data_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1035,34 +1035,6 @@
         <v>-0.0491746515035629</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>2000</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>falling</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>-0.4794178009033203</v>
-      </c>
-      <c r="D22" t="n">
-        <v>-1.04423999786377</v>
-      </c>
-      <c r="E22" t="n">
-        <v>-0.2169336676597595</v>
-      </c>
-      <c r="F22" t="n">
-        <v>-0.0039706239476799</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.0164933614432811</v>
-      </c>
-      <c r="H22" t="n">
-        <v>-0.0076358155347406</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/spliced/falling/2023-03-25_17-55-55/data_selected.xlsx
+++ b/spliced/falling/2023-03-25_17-55-55/data_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.7179374694824219</v>
+        <v>0.5757570266723633</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.8143949508666992</v>
+        <v>-0.6172752380371094</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3482142686843872</v>
+        <v>-0.5019410252571106</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.294895201921463</v>
+        <v>-0.005192354787141</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9447031021118164</v>
+        <v>0.0755945742130279</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0591012127697467</v>
+        <v>0.0082466807216405</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.5368337631225586</v>
+        <v>0.4425497055053711</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.205713748931885</v>
+        <v>-0.6991405487060547</v>
       </c>
       <c r="E3" t="n">
-        <v>1.448910713195801</v>
+        <v>-0.699306845664978</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.011148290708661</v>
+        <v>0.00167987938039</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.4109596014022827</v>
+        <v>0.0209221355617046</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3446807265281677</v>
+        <v>-0.0082466807216405</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.1711635589599609</v>
+        <v>0.3754444122314453</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.118285655975342</v>
+        <v>-0.6968369483947754</v>
       </c>
       <c r="E4" t="n">
-        <v>2.145041465759277</v>
+        <v>-0.6064528226852417</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.3101668357849121</v>
+        <v>0.0074830991216003</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.0274889357388019</v>
+        <v>-0.0106901414692401</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.0977384373545646</v>
+        <v>0.0113010071218013</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-0.2017207145690918</v>
+        <v>0.4661340713500976</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.242213249206543</v>
+        <v>-0.7378168106079102</v>
       </c>
       <c r="E5" t="n">
-        <v>2.87759017944336</v>
+        <v>-0.8263083696365356</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.2105957865715026</v>
+        <v>-0.0024434609804302</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9750936627388</v>
+        <v>0.0310014113783836</v>
       </c>
       <c r="H5" t="n">
-        <v>-1.285871386528015</v>
+        <v>0.0187841057777404</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-1.174193859100342</v>
+        <v>0.3465394973754883</v>
       </c>
       <c r="D6" t="n">
-        <v>-2.213449716567993</v>
+        <v>-0.7457756996154785</v>
       </c>
       <c r="E6" t="n">
-        <v>2.043629169464112</v>
+        <v>-0.6906525492668152</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1690569519996643</v>
+        <v>-0.0039706239476799</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.0616973899304866</v>
+        <v>0.0114537235349416</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.9847147464752196</v>
+        <v>-0.0603229440748691</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-2.267188549041748</v>
+        <v>0.1021490097045898</v>
       </c>
       <c r="D7" t="n">
-        <v>-3.465161085128784</v>
+        <v>-0.7542791366577148</v>
       </c>
       <c r="E7" t="n">
-        <v>2.441758394241333</v>
+        <v>-0.5537225604057312</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.828319668769836</v>
+        <v>-0.08918632566928859</v>
       </c>
       <c r="G7" t="n">
-        <v>1.374752283096314</v>
+        <v>0.2981022298336029</v>
       </c>
       <c r="H7" t="n">
-        <v>2.351678371429444</v>
+        <v>0.0048869219608604</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-3.827628612518311</v>
+        <v>0.2407388687133789</v>
       </c>
       <c r="D8" t="n">
-        <v>-2.444296360015869</v>
+        <v>-0.6835846900939941</v>
       </c>
       <c r="E8" t="n">
-        <v>1.300557613372803</v>
+        <v>-0.2614910900592804</v>
       </c>
       <c r="F8" t="n">
-        <v>1.769065737724304</v>
+        <v>-0.2064724564552307</v>
       </c>
       <c r="G8" t="n">
-        <v>-1.171639561653137</v>
+        <v>0.7906123399734497</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.7515169382095337</v>
+        <v>0.058184914290905</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-4.013436794281006</v>
+        <v>0.7179374694824219</v>
       </c>
       <c r="D9" t="n">
-        <v>-1.781657457351685</v>
+        <v>-0.8143949508666992</v>
       </c>
       <c r="E9" t="n">
-        <v>1.157623410224915</v>
+        <v>0.3482142686843872</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3782783150672912</v>
+        <v>-0.294895201921463</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1327104717493057</v>
+        <v>0.9447031021118164</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1701259762048721</v>
+        <v>0.0591012127697467</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-6.23094367980957</v>
+        <v>0.5368337631225586</v>
       </c>
       <c r="D10" t="n">
-        <v>-1.233789682388306</v>
+        <v>-1.205713748931885</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.820952653884888</v>
+        <v>1.448910713195801</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.3932445049285888</v>
+        <v>-0.011148290708661</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.6039929986000061</v>
+        <v>-0.4109596014022827</v>
       </c>
       <c r="H10" t="n">
-        <v>1.466076612472534</v>
+        <v>0.3446807265281677</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>23.2268295288086</v>
+        <v>0.1711635589599609</v>
       </c>
       <c r="D11" t="n">
-        <v>-21.41561698913575</v>
+        <v>-1.118285655975342</v>
       </c>
       <c r="E11" t="n">
-        <v>-21.18720245361328</v>
+        <v>2.145041465759277</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.2658790946006775</v>
+        <v>-0.3101668357849121</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.8356636762619019</v>
+        <v>-0.0274889357388019</v>
       </c>
       <c r="H11" t="n">
-        <v>-1.123686671257019</v>
+        <v>-0.0977384373545646</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-2.458966255187988</v>
+        <v>-0.2017207145690918</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.9571634531021118</v>
+        <v>-1.242213249206543</v>
       </c>
       <c r="E12" t="n">
-        <v>-1.108598947525024</v>
+        <v>2.87759017944336</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.1258382350206375</v>
+        <v>-0.2105957865715026</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.4847215712070465</v>
+        <v>0.9750936627388</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.2483167201280594</v>
+        <v>-1.285871386528015</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1.693714141845703</v>
+        <v>-1.174193859100342</v>
       </c>
       <c r="D13" t="n">
-        <v>-1.90864372253418</v>
+        <v>-2.213449716567993</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4882011413574219</v>
+        <v>2.043629169464112</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.1476766765117645</v>
+        <v>0.1690569519996643</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0491746515035629</v>
+        <v>-0.0616973899304866</v>
       </c>
       <c r="H13" t="n">
-        <v>0.3875939846038818</v>
+        <v>-0.9847147464752196</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-0.7738790512084961</v>
+        <v>-2.267188549041748</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.2492363452911377</v>
+        <v>-3.465161085128784</v>
       </c>
       <c r="E14" t="n">
-        <v>-2.26715350151062</v>
+        <v>2.441758394241333</v>
       </c>
       <c r="F14" t="n">
-        <v>0.001527163083665</v>
+        <v>-1.828319668769836</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3072652220726013</v>
+        <v>1.374752283096314</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0675006061792373</v>
+        <v>2.351678371429444</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5.673647880554199</v>
+        <v>-3.827628612518311</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3179191350936889</v>
+        <v>-2.444296360015869</v>
       </c>
       <c r="E15" t="n">
-        <v>1.958111882209778</v>
+        <v>1.300557613372803</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.0311541277915239</v>
+        <v>1.769065737724304</v>
       </c>
       <c r="G15" t="n">
-        <v>0.040775254368782</v>
+        <v>-1.171639561653137</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.4699080884456634</v>
+        <v>-0.7515169382095337</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.6818609237670898</v>
+        <v>-4.013436794281006</v>
       </c>
       <c r="D16" t="n">
-        <v>-1.483997821807861</v>
+        <v>-1.781657457351685</v>
       </c>
       <c r="E16" t="n">
-        <v>1.116373777389526</v>
+        <v>1.157623410224915</v>
       </c>
       <c r="F16" t="n">
-        <v>0.007941247895359899</v>
+        <v>0.3782783150672912</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.0103847095742821</v>
+        <v>-0.1327104717493057</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0820086598396301</v>
+        <v>0.1701259762048721</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-1.090703964233398</v>
+        <v>-6.23094367980957</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.7039613127708435</v>
+        <v>-1.233789682388306</v>
       </c>
       <c r="E17" t="n">
-        <v>0.7109836339950562</v>
+        <v>-1.820952653884888</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.012980886735022</v>
+        <v>-0.3932445049285888</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1769981980323791</v>
+        <v>-0.6039929986000061</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0358883328735828</v>
+        <v>1.466076612472534</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1.377178192138672</v>
+        <v>23.2268295288086</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5982787609100342</v>
+        <v>-21.41561698913575</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.2494584619998932</v>
+        <v>-21.18720245361328</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0025961773935705</v>
+        <v>-0.2658790946006775</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.0377209298312664</v>
+        <v>-0.8356636762619019</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.1343903541564941</v>
+        <v>-1.123686671257019</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-1.309194564819336</v>
+        <v>-2.458966255187988</v>
       </c>
       <c r="D19" t="n">
-        <v>-1.633804559707642</v>
+        <v>-0.9571634531021118</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.4874744415283203</v>
+        <v>-1.108598947525024</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.0339030213654041</v>
+        <v>-0.1258382350206375</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.0348193198442459</v>
+        <v>-0.4847215712070465</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0242818929255008</v>
+        <v>-0.2483167201280594</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.3532924652099609</v>
+        <v>1.693714141845703</v>
       </c>
       <c r="D20" t="n">
-        <v>-1.432539701461792</v>
+        <v>-1.90864372253418</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.3063055276870727</v>
+        <v>0.4882011413574219</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.0064140851609408</v>
+        <v>-0.1476766765117645</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0251981914043426</v>
+        <v>0.0491746515035629</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0591012127697467</v>
+        <v>0.3875939846038818</v>
       </c>
     </row>
     <row r="21">
@@ -1017,22 +1017,302 @@
         </is>
       </c>
       <c r="C21" t="n">
+        <v>-0.7738790512084961</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-0.2492363452911377</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-2.26715350151062</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.001527163083665</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.3072652220726013</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.0675006061792373</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>5.673647880554199</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.3179191350936889</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1.958111882209778</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-0.0311541277915239</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.040775254368782</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-0.4699080884456634</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2100</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0.6818609237670898</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-1.483997821807861</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1.116373777389526</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.007941247895359899</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-0.0103847095742821</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.0820086598396301</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2200</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>-1.090703964233398</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-0.7039613127708435</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.7109836339950562</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-0.012980886735022</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.1769981980323791</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.0358883328735828</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2300</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>1.377178192138672</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.5982787609100342</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-0.2494584619998932</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.0025961773935705</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-0.0377209298312664</v>
+      </c>
+      <c r="H25" t="n">
+        <v>-0.1343903541564941</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2400</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>-1.309194564819336</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-1.633804559707642</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-0.4874744415283203</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-0.0339030213654041</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-0.0348193198442459</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.0242818929255008</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0.3532924652099609</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-1.432539701461792</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-0.3063055276870727</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-0.0064140851609408</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.0251981914043426</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.0591012127697467</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2600</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
         <v>0.4603271484375</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D28" t="n">
         <v>-0.7004889249801636</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E28" t="n">
         <v>-0.5307044386863708</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F28" t="n">
         <v>0.0099265603348612</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G28" t="n">
         <v>-0.0109955742955207</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H28" t="n">
         <v>-0.0491746515035629</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2700</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.4794178009033203</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-1.04423999786377</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-0.2169336676597595</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-0.0039706239476799</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.0164933614432811</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-0.0076358155347406</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2800</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0.1147146224975586</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-0.7852307558059692</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-0.0405309796333313</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-0.0065668015740811</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-0.0163406450301408</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.0088575463742017</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2900</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>-0.0877876281738281</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-0.7322115302085876</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-0.3498360514640808</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-0.009315694682300001</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-0.0369573459029197</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-0.0157297793775796</v>
       </c>
     </row>
   </sheetData>
